--- a/biology/Zoologie/Carabus_cancellatus/Carabus_cancellatus.xlsx
+++ b/biology/Zoologie/Carabus_cancellatus/Carabus_cancellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carabus cancellatus est une espèce d'insectes coléoptères de la famille des Carabidae.
 C'est un carabe terrestre, prédateur, long de 17 à 32 mm, commun en Europe centrale et du Nord ainsi qu'en Sibérie. Il a été introduit en Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En Europe, plusieurs sous-espèces sont distinguées par les spécialistes :
 Carabus (Tachypus) cancellatus alessiensis Apfelbeck, 1901
@@ -551,7 +565,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prédateurs actifs de jour et de nuit se nourrissent d'insectes, d'escargots, de vers de terre et de charognes et sont d'importants agents de lutte biologique contre les ravageurs. Ils font partie des coléoptères du sol les plus rapides et peuvent parcourir un mètre en six secondes environ. Si les animaux sont dérangés, ils peuvent injecter du suc gastrique jusqu'à 25 centimètres. Les femelles pondent environ 45 œufs à partir desquels éclosent les larves, qui ont un mode de vie similaire à celui des adultes. Ils se nymphosent la même année, de sorte que les adultes éclosent à l'automne. Celles-ci hibernent à partir d'octobre sous écorce ou entre touffes d'herbe, sont parfois sociables et réapparaissent en avril de l'année suivante. Puis ils vivent jusqu'en août.
 </t>
@@ -582,9 +598,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rare dans la région, il fait partie des invertébrés strictement protégés en Wallonie (Belgique)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rare dans la région, il fait partie des invertébrés strictement protégés en Wallonie (Belgique).
 </t>
         </is>
       </c>
